--- a/TimeSheet_Appvance_2015-10-5-to-2015-10-11_Venugopal.xlsx
+++ b/TimeSheet_Appvance_2015-10-5-to-2015-10-11_Venugopal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Project</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Team Meeting</t>
   </si>
   <si>
-    <t>New Learnings in performance testing tools</t>
-  </si>
-  <si>
     <t>Non-Project Time</t>
   </si>
   <si>
@@ -104,10 +101,28 @@
     <t>Designing Framework / give the run on sahi scripts</t>
   </si>
   <si>
-    <t>Cell Trust Application</t>
-  </si>
-  <si>
-    <t>Spreajs(Grape city)</t>
+    <t>12Twenty Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12Twenty </t>
+  </si>
+  <si>
+    <t>New Learnings in testing tools</t>
+  </si>
+  <si>
+    <t>8.30 AM</t>
+  </si>
+  <si>
+    <t>6.30PM</t>
+  </si>
+  <si>
+    <t>6.30 PM</t>
+  </si>
+  <si>
+    <t>5.50 PM</t>
+  </si>
+  <si>
+    <t>6.40 PM</t>
   </si>
 </sst>
 </file>
@@ -730,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,7 +778,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -783,7 +800,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -803,10 +820,10 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="10">
-        <v>42310</v>
+        <v>42352</v>
       </c>
       <c r="E4" s="10">
-        <v>42316</v>
+        <v>42358</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -827,25 +844,25 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>42310</v>
+        <v>42352</v>
       </c>
       <c r="E5" s="13">
-        <v>42311</v>
+        <v>42353</v>
       </c>
       <c r="F5" s="13">
-        <v>42312</v>
+        <v>42354</v>
       </c>
       <c r="G5" s="13">
-        <v>42313</v>
+        <v>42355</v>
       </c>
       <c r="H5" s="13">
-        <v>42314</v>
+        <v>42356</v>
       </c>
       <c r="I5" s="13">
-        <v>42315</v>
+        <v>42357</v>
       </c>
       <c r="J5" s="13">
-        <v>42316</v>
+        <v>42358</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>5</v>
@@ -894,13 +911,21 @@
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="16">
+        <v>8.3645833333333339</v>
+      </c>
       <c r="I7" s="16"/>
       <c r="J7" s="12"/>
       <c r="K7" s="14"/>
@@ -914,13 +939,21 @@
       <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="16">
-        <v>5.708333333333333</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="16">
+        <v>6.78125</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
@@ -940,13 +973,12 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="19">
+        <v>2</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="21">
-        <f>SUM(D9:J9)</f>
-        <v>0</v>
-      </c>
+      <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -966,35 +998,31 @@
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="21">
-        <f t="shared" ref="K10:K16" si="0">SUM(D10:J10)</f>
-        <v>0</v>
-      </c>
+      <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="26.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="17">
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1.3</v>
+      </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1005,19 +1033,24 @@
         <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.3</v>
+      </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="19">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1028,15 +1061,23 @@
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="24">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19">
         <v>3</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
@@ -1044,52 +1085,62 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="26.25">
       <c r="A14" s="1"/>
       <c r="B14" s="17">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>26</v>
+      <c r="C14" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="32">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1.3</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="21">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="26.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="17">
         <v>7</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>28</v>
+      <c r="C15" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
         <v>1.3</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="19"/>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19">
+        <v>3</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="21">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
+      <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1099,23 +1150,18 @@
       <c r="B16" s="17">
         <v>8</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="21">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="L16" s="22"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
@@ -1147,10 +1193,10 @@
       <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -1167,10 +1213,10 @@
       <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -1179,20 +1225,20 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
       <c r="A20" s="1"/>
       <c r="B20" s="17">
         <v>12</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="20"/>
       <c r="K20" s="27"/>
       <c r="L20" s="14"/>
@@ -1201,73 +1247,53 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="17">
-        <v>13</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="14"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31">
+        <f>SUM(D9:D15)</f>
+        <v>9</v>
+      </c>
+      <c r="E21" s="31">
+        <f>SUM(E9:E15)</f>
+        <v>8.6</v>
+      </c>
+      <c r="F21" s="31">
+        <f>SUM(F9:F15)</f>
+        <v>8.6</v>
+      </c>
+      <c r="G21" s="31">
+        <f>SUM(G9:G15)</f>
+        <v>9</v>
+      </c>
+      <c r="H21" s="31">
+        <f>SUM(H9:H15)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31">
+        <f>SUM(D21:J21)</f>
+        <v>44.5</v>
+      </c>
+      <c r="L21" s="30"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1">
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31">
-        <f>SUM(D9:D16)</f>
-        <v>7.8999999999999995</v>
-      </c>
-      <c r="E22" s="31">
-        <f>SUM(E9:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="31">
-        <f>SUM(F9:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="31">
-        <f>SUM(G9:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="31">
-        <f>SUM(H9:H16)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31">
-        <f>SUM(D22:J22)</f>
-        <v>7.8999999999999995</v>
-      </c>
-      <c r="L22" s="30"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
